--- a/resumo_busca_ativa_consolidado.xlsx
+++ b/resumo_busca_ativa_consolidado.xlsx
@@ -865,13 +865,13 @@
         <v>19133</v>
       </c>
       <c r="C2">
-        <v>1135</v>
+        <v>1142</v>
       </c>
       <c r="D2">
-        <v>1780</v>
+        <v>1762</v>
       </c>
       <c r="E2">
-        <v>16218</v>
+        <v>16229</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -885,13 +885,13 @@
         <v>16817</v>
       </c>
       <c r="C3">
-        <v>861</v>
+        <v>874</v>
       </c>
       <c r="D3">
-        <v>1596</v>
+        <v>1590</v>
       </c>
       <c r="E3">
-        <v>14281</v>
+        <v>14274</v>
       </c>
       <c r="F3">
         <v>79</v>
@@ -905,13 +905,13 @@
         <v>9446</v>
       </c>
       <c r="C4">
-        <v>523</v>
+        <v>567</v>
       </c>
       <c r="D4">
-        <v>1419</v>
+        <v>1360</v>
       </c>
       <c r="E4">
-        <v>7337</v>
+        <v>7352</v>
       </c>
       <c r="F4">
         <v>167</v>
@@ -958,13 +958,13 @@
         <v>9670</v>
       </c>
       <c r="C2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D2">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="E2">
-        <v>8583</v>
+        <v>8589</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -978,13 +978,13 @@
         <v>2381</v>
       </c>
       <c r="C3">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D3">
         <v>326</v>
       </c>
       <c r="E3">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="F3">
         <v>48</v>
@@ -998,13 +998,13 @@
         <v>1735</v>
       </c>
       <c r="C4">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D4">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E4">
-        <v>1396</v>
+        <v>1389</v>
       </c>
       <c r="F4">
         <v>19</v>
@@ -1018,13 +1018,13 @@
         <v>1649</v>
       </c>
       <c r="C5">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D5">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E5">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1038,13 +1038,13 @@
         <v>1500</v>
       </c>
       <c r="C6">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D6">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="E6">
-        <v>1087</v>
+        <v>1101</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1058,13 +1058,13 @@
         <v>1280</v>
       </c>
       <c r="C7">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D7">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E7">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>1135</v>
       </c>
       <c r="C9">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D9">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E9">
         <v>648</v>
@@ -1118,13 +1118,13 @@
         <v>977</v>
       </c>
       <c r="C10">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D10">
         <v>68</v>
       </c>
       <c r="E10">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1138,10 +1138,10 @@
         <v>920</v>
       </c>
       <c r="C11">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D11">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E11">
         <v>836</v>
@@ -1178,13 +1178,13 @@
         <v>843</v>
       </c>
       <c r="C13">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D13">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E13">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="F13">
         <v>140</v>
@@ -1238,13 +1238,13 @@
         <v>790</v>
       </c>
       <c r="C16">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E16">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="F16">
         <v>26</v>
@@ -1278,13 +1278,13 @@
         <v>695</v>
       </c>
       <c r="C18">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D18">
         <v>49</v>
       </c>
       <c r="E18">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1318,13 +1318,13 @@
         <v>646</v>
       </c>
       <c r="C20">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20">
         <v>38</v>
       </c>
       <c r="E20">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>616</v>
       </c>
       <c r="C21">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D21">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E21">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1378,13 +1378,13 @@
         <v>601</v>
       </c>
       <c r="C23">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D23">
         <v>134</v>
       </c>
       <c r="E23">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>495</v>
       </c>
       <c r="C25">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25">
         <v>39</v>
       </c>
       <c r="E25">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>449</v>
       </c>
       <c r="C26">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="D26">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="E26">
         <v>211</v>
@@ -1481,10 +1481,10 @@
         <v>21</v>
       </c>
       <c r="D28">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E28">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1558,13 +1558,13 @@
         <v>389</v>
       </c>
       <c r="C32">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1598,10 +1598,10 @@
         <v>295</v>
       </c>
       <c r="C34">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D34">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E34">
         <v>207</v>
@@ -1638,13 +1638,13 @@
         <v>246</v>
       </c>
       <c r="C36">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1698,13 +1698,13 @@
         <v>232</v>
       </c>
       <c r="C39">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D39">
         <v>21</v>
       </c>
       <c r="E39">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1758,13 +1758,13 @@
         <v>207</v>
       </c>
       <c r="C42">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1938,13 +1938,13 @@
         <v>151</v>
       </c>
       <c r="C51">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D51">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E51">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -1998,13 +1998,13 @@
         <v>144</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -2698,13 +2698,13 @@
         <v>67</v>
       </c>
       <c r="C89">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F89">
         <v>0</v>
